--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/15/seed5/result_data_KNN.xlsx
@@ -466,7 +466,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.43</v>
+        <v>-7.759</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.946000000000001</v>
+        <v>-7.855999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.458</v>
+        <v>-7.797</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.948</v>
+        <v>-7.81</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.638</v>
+        <v>6.4</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.192</v>
+        <v>-21.448</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.148</v>
+        <v>-12.697</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.246</v>
+        <v>-8.102999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.948</v>
+        <v>-12.385</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.382000000000001</v>
+        <v>7.779000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.542</v>
+        <v>-12.687</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.314</v>
+        <v>-21.632</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.922</v>
+        <v>-7.908000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>4.989999999999999</v>
+        <v>5.203</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-20.402</v>
+        <v>-20.982</v>
       </c>
       <c r="B32" t="n">
-        <v>9.106</v>
+        <v>8.013</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.630000000000001</v>
+        <v>7.049000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.332</v>
+        <v>-20.519</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.938</v>
+        <v>-20.528</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-10.97</v>
+        <v>-11.64</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.776</v>
+        <v>-11.991</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.82</v>
+        <v>7.761</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.776</v>
+        <v>-21.651</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.578</v>
+        <v>6.607000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.678</v>
+        <v>-11.632</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-20.424</v>
+        <v>-20.962</v>
       </c>
       <c r="B54" t="n">
-        <v>6.659999999999999</v>
+        <v>6.215999999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.972</v>
+        <v>-22.18</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1208,12 +1208,12 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.108000000000001</v>
+        <v>-7.848000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.708</v>
+        <v>-21.461</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.196</v>
+        <v>-21.359</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.298</v>
+        <v>-21.323</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.016</v>
+        <v>-7.007</v>
       </c>
     </row>
     <row r="71">
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-20.966</v>
+        <v>-21.194</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.506</v>
+        <v>-12.648</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.838000000000001</v>
+        <v>7.823</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.81</v>
+        <v>-11.868</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1552,13 +1552,13 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.674000000000001</v>
+        <v>7.503</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.103999999999999</v>
+        <v>-7.583</v>
       </c>
     </row>
     <row r="81">
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.894</v>
+        <v>-21.229</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.154</v>
+        <v>-13.056</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.368</v>
+        <v>-11.742</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.914</v>
+        <v>-21.429</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.992</v>
+        <v>-13.293</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.302</v>
+        <v>-10.589</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.192</v>
+        <v>-21.056</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.16</v>
+        <v>-21.338</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.056000000000001</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="96">
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-11.612</v>
+        <v>-11.854</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.178</v>
+        <v>5.543000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1810,15 +1810,15 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.489999999999999</v>
+        <v>-7.802000000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.702</v>
+        <v>-20.861</v>
       </c>
       <c r="B99" t="n">
-        <v>5.528</v>
+        <v>6.287999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.061999999999999</v>
+        <v>5.829000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.144</v>
+        <v>-7.965000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-13.672</v>
+        <v>-12.997</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.392</v>
+        <v>-21.437</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
